--- a/timesheet_01_13_2017.xlsx
+++ b/timesheet_01_13_2017.xlsx
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="320" zoomScaleNormal="320" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,17 +874,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -892,17 +892,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -910,17 +910,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -928,12 +928,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -942,7 +942,7 @@
         <v>2094.7166666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -951,13 +951,16 @@
         <v>34.911944444444444</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="2">
         <f>D62*35</f>
         <v>1221.9180555555556</v>
+      </c>
+      <c r="E64">
+        <v>1221.92</v>
       </c>
     </row>
   </sheetData>
